--- a/KUDIR/KUDIR/ReportTemplates/Дивиденты.xlsx
+++ b/KUDIR/KUDIR/ReportTemplates/Дивиденты.xlsx
@@ -59,6 +59,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0_р_."/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,20 +122,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -437,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,90 +474,1667 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>6</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>7</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>8</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>9</v>
       </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="I129" s="5"/>
+    </row>
+    <row r="130" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="I136" s="5"/>
+    </row>
+    <row r="137" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="I137" s="5"/>
+    </row>
+    <row r="138" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="I138" s="5"/>
+    </row>
+    <row r="139" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="I139" s="5"/>
+    </row>
+    <row r="140" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="I140" s="5"/>
+    </row>
+    <row r="141" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="I141" s="5"/>
+    </row>
+    <row r="142" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="I142" s="5"/>
+    </row>
+    <row r="143" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="I143" s="5"/>
+    </row>
+    <row r="144" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="I144" s="5"/>
+    </row>
+    <row r="145" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="I145" s="5"/>
+    </row>
+    <row r="146" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="I146" s="5"/>
+    </row>
+    <row r="147" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="I147" s="5"/>
+    </row>
+    <row r="148" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="I149" s="5"/>
+    </row>
+    <row r="150" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="I150" s="5"/>
+    </row>
+    <row r="151" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="I151" s="5"/>
+    </row>
+    <row r="152" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="I152" s="5"/>
+    </row>
+    <row r="153" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="I153" s="5"/>
+    </row>
+    <row r="154" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="I154" s="5"/>
+    </row>
+    <row r="155" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="I155" s="5"/>
+    </row>
+    <row r="156" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="I156" s="5"/>
+    </row>
+    <row r="157" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="I157" s="5"/>
+    </row>
+    <row r="158" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="I158" s="5"/>
+    </row>
+    <row r="159" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="I159" s="5"/>
+    </row>
+    <row r="160" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="I160" s="5"/>
+    </row>
+    <row r="161" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="I161" s="5"/>
+    </row>
+    <row r="162" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="I162" s="5"/>
+    </row>
+    <row r="163" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="I163" s="5"/>
+    </row>
+    <row r="164" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="I164" s="5"/>
+    </row>
+    <row r="165" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="I165" s="5"/>
+    </row>
+    <row r="166" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="I166" s="5"/>
+    </row>
+    <row r="167" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="I167" s="5"/>
+    </row>
+    <row r="168" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="I168" s="5"/>
+    </row>
+    <row r="169" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="I169" s="5"/>
+    </row>
+    <row r="170" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="I170" s="5"/>
+    </row>
+    <row r="171" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="I171" s="5"/>
+    </row>
+    <row r="172" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="I172" s="5"/>
+    </row>
+    <row r="173" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="I173" s="5"/>
+    </row>
+    <row r="174" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="I174" s="5"/>
+    </row>
+    <row r="175" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="I175" s="5"/>
+    </row>
+    <row r="176" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="I176" s="5"/>
+    </row>
+    <row r="177" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="I177" s="5"/>
+    </row>
+    <row r="178" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="I178" s="5"/>
+    </row>
+    <row r="179" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="I179" s="5"/>
+    </row>
+    <row r="180" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="I180" s="5"/>
+    </row>
+    <row r="181" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="I181" s="5"/>
+    </row>
+    <row r="182" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="I182" s="5"/>
+    </row>
+    <row r="183" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="I183" s="5"/>
+    </row>
+    <row r="184" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="I184" s="5"/>
+    </row>
+    <row r="185" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="I185" s="5"/>
+    </row>
+    <row r="186" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="I186" s="5"/>
+    </row>
+    <row r="187" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="I187" s="5"/>
+    </row>
+    <row r="188" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="I188" s="5"/>
+    </row>
+    <row r="189" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="I189" s="5"/>
+    </row>
+    <row r="190" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="I190" s="5"/>
+    </row>
+    <row r="191" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="I191" s="5"/>
+    </row>
+    <row r="192" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="I192" s="5"/>
+    </row>
+    <row r="193" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="I193" s="5"/>
+    </row>
+    <row r="194" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="I194" s="5"/>
+    </row>
+    <row r="195" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="I195" s="5"/>
+    </row>
+    <row r="196" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="I196" s="5"/>
+    </row>
+    <row r="197" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="I197" s="5"/>
+    </row>
+    <row r="198" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="I199" s="5"/>
+    </row>
+    <row r="200" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="I200" s="5"/>
+    </row>
+    <row r="201" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="I201" s="5"/>
+    </row>
+    <row r="202" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="I202" s="5"/>
+    </row>
+    <row r="203" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="I203" s="5"/>
+    </row>
+    <row r="204" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="I204" s="5"/>
+    </row>
+    <row r="205" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="I205" s="5"/>
+    </row>
+    <row r="206" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="I206" s="5"/>
+    </row>
+    <row r="207" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="I207" s="5"/>
+    </row>
+    <row r="208" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="I208" s="5"/>
+    </row>
+    <row r="209" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="I209" s="5"/>
+    </row>
+    <row r="210" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="I210" s="5"/>
+    </row>
+    <row r="211" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="I211" s="5"/>
+    </row>
+    <row r="212" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="I212" s="5"/>
+    </row>
+    <row r="213" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="I213" s="5"/>
+    </row>
+    <row r="214" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="I214" s="5"/>
+    </row>
+    <row r="215" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="I215" s="5"/>
+    </row>
+    <row r="216" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="I216" s="5"/>
+    </row>
+    <row r="217" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="I217" s="5"/>
+    </row>
+    <row r="218" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="I218" s="5"/>
+    </row>
+    <row r="219" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="I219" s="5"/>
+    </row>
+    <row r="220" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="I220" s="5"/>
+    </row>
+    <row r="221" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="I221" s="5"/>
+    </row>
+    <row r="222" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="I222" s="5"/>
+    </row>
+    <row r="223" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="I223" s="5"/>
+    </row>
+    <row r="224" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="I224" s="5"/>
+    </row>
+    <row r="225" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="I225" s="5"/>
+    </row>
+    <row r="226" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="I226" s="5"/>
+    </row>
+    <row r="227" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="I227" s="5"/>
+    </row>
+    <row r="228" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="I228" s="5"/>
+    </row>
+    <row r="229" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="I229" s="5"/>
+    </row>
+    <row r="230" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="I230" s="5"/>
+    </row>
+    <row r="231" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="I231" s="5"/>
+    </row>
+    <row r="232" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="I232" s="5"/>
+    </row>
+    <row r="233" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="I233" s="5"/>
+    </row>
+    <row r="234" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="I234" s="5"/>
+    </row>
+    <row r="235" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="I235" s="5"/>
+    </row>
+    <row r="236" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="I236" s="5"/>
+    </row>
+    <row r="237" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="I237" s="5"/>
+    </row>
+    <row r="238" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="I238" s="5"/>
+    </row>
+    <row r="239" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="G239" s="5"/>
+    </row>
+    <row r="240" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="G240" s="5"/>
+    </row>
+    <row r="241" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="G241" s="5"/>
+    </row>
+    <row r="242" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="G242" s="5"/>
+    </row>
+    <row r="243" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="G243" s="5"/>
+    </row>
+    <row r="244" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="G244" s="5"/>
+    </row>
+    <row r="245" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="G245" s="5"/>
+    </row>
+    <row r="246" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="G246" s="5"/>
+    </row>
+    <row r="247" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D247" s="5"/>
+      <c r="E247" s="5"/>
+      <c r="G247" s="5"/>
+    </row>
+    <row r="248" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="G248" s="5"/>
+    </row>
+    <row r="249" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="G249" s="5"/>
+    </row>
+    <row r="250" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D250" s="5"/>
+      <c r="E250" s="5"/>
+      <c r="G250" s="5"/>
+    </row>
+    <row r="251" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="G251" s="5"/>
+    </row>
+    <row r="252" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D252" s="5"/>
+      <c r="E252" s="5"/>
+      <c r="G252" s="5"/>
+    </row>
+    <row r="253" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D253" s="5"/>
+      <c r="E253" s="5"/>
+      <c r="G253" s="5"/>
+    </row>
+    <row r="254" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D254" s="5"/>
+      <c r="E254" s="5"/>
+      <c r="G254" s="5"/>
+    </row>
+    <row r="255" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="G255" s="5"/>
+    </row>
+    <row r="256" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="G256" s="5"/>
+    </row>
+    <row r="257" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="G257" s="5"/>
+    </row>
+    <row r="258" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="G258" s="5"/>
+    </row>
+    <row r="259" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="G259" s="5"/>
+    </row>
+    <row r="260" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="G260" s="5"/>
+    </row>
+    <row r="261" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="G261" s="5"/>
+    </row>
+    <row r="262" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="G262" s="5"/>
+    </row>
+    <row r="263" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="G263" s="5"/>
+    </row>
+    <row r="264" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="G264" s="5"/>
+    </row>
+    <row r="265" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="G265" s="5"/>
+    </row>
+    <row r="266" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D266" s="5"/>
+      <c r="E266" s="5"/>
+      <c r="G266" s="5"/>
+    </row>
+    <row r="267" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D267" s="5"/>
+      <c r="G267" s="5"/>
+    </row>
+    <row r="268" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D268" s="5"/>
+      <c r="G268" s="5"/>
+    </row>
+    <row r="269" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D269" s="5"/>
+      <c r="G269" s="5"/>
+    </row>
+    <row r="270" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D270" s="5"/>
+      <c r="G270" s="5"/>
+    </row>
+    <row r="271" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D271" s="5"/>
+      <c r="G271" s="5"/>
+    </row>
+    <row r="272" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D272" s="5"/>
+      <c r="G272" s="5"/>
+    </row>
+    <row r="273" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D273" s="5"/>
+      <c r="G273" s="5"/>
+    </row>
+    <row r="274" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D274" s="5"/>
+      <c r="G274" s="5"/>
+    </row>
+    <row r="275" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D275" s="5"/>
+      <c r="G275" s="5"/>
+    </row>
+    <row r="276" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D276" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
